--- a/va_facility_data_2025-02-20/Edward P. Boland Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Edward%20P.%20Boland%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Edward P. Boland Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Edward%20P.%20Boland%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4c01f6014ab345ea8fb55b8d063729f0"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rdd6e7b1aa617417980f6831183f056a7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R16eb5b0f566f4f54a26c726319be8e7b"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R782596fddd1f4ed4b1f3c3c06c8f7bab"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ree3b9625fb404e0da4980897cc62ffb6"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9fdbdbde6e72455f8299d8cbd708b3d5"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R1a9b7ff493014cf38e55dcfce7c3bf69"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R42a143d21f72414ca075c7a6aa848999"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4b748816aac94e54aa4088b57cb6655a"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R864651605eb64f46a19e2f2d04ffb27b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd0dca3db320b419e888516b3327d24a2"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R6885386de2ad4c3db555f80ee3ae533a"/>
   </x:sheets>
 </x:workbook>
 </file>
